--- a/docs/Database20200924.xlsx
+++ b/docs/Database20200924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingler/项目文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2379D1-3DFD-8842-AF56-549B29564658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571FA0E-F390-A74F-8948-6059CE3DFAEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="502">
   <si>
     <t>Table Name</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Execute_Time</t>
   </si>
   <si>
-    <t>User_List</t>
-  </si>
-  <si>
     <t>用户列表</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Notification_Log</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -443,9 +437,6 @@
     <t>失败处理(1-Nothing,2-Retry,3-Retry&amp;Notify)</t>
   </si>
   <si>
-    <t>UserID*</t>
-  </si>
-  <si>
     <t>NAV_DB_Name</t>
   </si>
   <si>
@@ -497,9 +488,6 @@
     <t>XML文件最大容量(单位:M兆)</t>
   </si>
   <si>
-    <t>System_Setup</t>
-  </si>
-  <si>
     <t>系统设置</t>
   </si>
   <si>
@@ -686,9 +674,6 @@
     <t>[Customer_Vendor Total Count]</t>
   </si>
   <si>
-    <t>[Invoice Total Count]</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -806,9 +791,6 @@
     <t>ICPartnerCode</t>
   </si>
   <si>
-    <t>类型(0-Customer,1-Vendor,3-Unknow)</t>
-  </si>
-  <si>
     <t>CustVendInfo\No</t>
   </si>
   <si>
@@ -818,9 +800,6 @@
     <t>CustVendInfo\Address</t>
   </si>
   <si>
-    <t>CustVendInfo\Address2</t>
-  </si>
-  <si>
     <t>CustVendInfo\PHoneNo</t>
   </si>
   <si>
@@ -842,9 +821,6 @@
     <t>CustVendInfo\PaymentMethodCode</t>
   </si>
   <si>
-    <t>CustVendInfo\CostCenterCode</t>
-  </si>
-  <si>
     <t>CustVendInfo\ICPartnerCode</t>
   </si>
   <si>
@@ -854,9 +830,6 @@
     <t>CustVendInfo\PaymentTermsCode</t>
   </si>
   <si>
-    <t>CustVendInfo\ApplicationMethod</t>
-  </si>
-  <si>
     <t>CustVendInfo\City</t>
   </si>
   <si>
@@ -1271,9 +1244,6 @@
     <t>Other Buffer表 (对应Other.XML文件)</t>
   </si>
   <si>
-    <t>NAV_Table_Field_Setup</t>
-  </si>
-  <si>
     <t>NAV表及字段设置</t>
   </si>
   <si>
@@ -1334,24 +1304,9 @@
     <t>Porsche</t>
   </si>
   <si>
-    <t>K302 Zhuhai JJ</t>
-  </si>
-  <si>
-    <t>NavDBUser</t>
-  </si>
-  <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
-    <t>192.168.1.10</t>
-  </si>
-  <si>
     <t>NAV</t>
   </si>
   <si>
-    <t>Customer/Vendor Interface</t>
-  </si>
-  <si>
     <t>Y:\DMS_Interface2\K302ZH</t>
   </si>
   <si>
@@ -1359,9 +1314,6 @@
   </si>
   <si>
     <t>YYYYMMDD_CustVendInfo.XML</t>
-  </si>
-  <si>
-    <t>http://192.168.1.5/XXXXX</t>
   </si>
   <si>
     <t>NAV_WEB_UserID</t>
@@ -1571,6 +1523,226 @@
     <t>[Entry No_]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Notification_Log</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID*</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_List</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>System_Setup</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV_Table_Field_Setup</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K302ZH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K302 Zhuhai JJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavDBUser</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer/Vendor Interface</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.5/XXXXX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustVendInfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSTitle</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyTitle</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustVendBuffer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaxNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocked</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Address 2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postcode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Post Code]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARAPAccountNo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PricesIncludingVAT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationMethod</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Application Method]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentTermsCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentMethodCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostCenterCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Cost Center Code]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICPartnerCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Gen_ Bus_ Posting Group]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[VAT Bus_ Posting Group]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cust_VendPostingGroup</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Invoice Total Count]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustVendInfo\ApplicationMethod</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustVendInfo\Address2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustVendInfo\CostCenterCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(0-Customer,1-Vendor,3-Unknow)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1649,7 +1821,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,6 +1843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,6 +1996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2101,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2121,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -2262,7 +2441,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -2276,7 +2455,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -2300,7 +2479,7 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
@@ -2319,7 +2498,7 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
@@ -2338,7 +2517,7 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
@@ -2357,7 +2536,7 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
@@ -2376,7 +2555,7 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
@@ -2390,12 +2569,12 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -2409,27 +2588,27 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -2441,12 +2620,12 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>29</v>
@@ -2460,12 +2639,12 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="22" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>29</v>
@@ -2479,7 +2658,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -2505,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -2612,7 +2791,7 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -2624,12 +2803,12 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>29</v>
@@ -2643,12 +2822,12 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
@@ -2662,7 +2841,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -2777,7 +2956,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>29</v>
@@ -2791,12 +2970,12 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>20</v>
@@ -2806,7 +2985,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -2830,7 +3009,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>25</v>
@@ -2840,12 +3019,12 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>25</v>
@@ -2855,27 +3034,27 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>29</v>
@@ -2887,12 +3066,12 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="23" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>29</v>
@@ -2904,7 +3083,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2921,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -2934,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -3044,7 +3223,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -3121,22 +3300,22 @@
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>29</v>
@@ -3148,7 +3327,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -3156,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -3296,7 +3475,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -3313,12 +3492,12 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>29</v>
@@ -3332,7 +3511,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -3368,7 +3547,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="6" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -3392,22 +3571,22 @@
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>29</v>
@@ -3419,7 +3598,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -3427,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -3494,7 +3673,7 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>29</v>
@@ -3510,7 +3689,7 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -3551,22 +3730,22 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>29</v>
@@ -3578,7 +3757,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -3586,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -3703,7 +3882,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="2:8">
@@ -3725,7 +3904,7 @@
     </row>
     <row r="100" spans="2:8">
       <c r="B100" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>25</v>
@@ -3735,27 +3914,27 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="2:8">
       <c r="B101" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>29</v>
@@ -3767,12 +3946,12 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="23" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>25</v>
@@ -3782,22 +3961,22 @@
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="24" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="2:8">
       <c r="B104" s="23" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
       <c r="H104" s="24" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +4005,7 @@
   <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3845,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>92</v>
+        <v>447</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3858,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3891,7 +4070,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>30</v>
@@ -3905,7 +4084,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -3935,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -3948,7 +4127,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
@@ -3962,12 +4141,12 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
@@ -3981,18 +4160,18 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -4000,15 +4179,15 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
@@ -4017,7 +4196,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -4025,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -4038,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -4071,7 +4250,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -4085,7 +4264,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -4115,7 +4294,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -4128,13 +4307,13 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>9</v>
@@ -4142,18 +4321,18 @@
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -4161,12 +4340,12 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -4176,15 +4355,15 @@
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
@@ -4198,10 +4377,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
@@ -4210,12 +4389,12 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
@@ -4227,7 +4406,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -4241,12 +4420,12 @@
         <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4258,6 +4437,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4266,7 +4446,7 @@
   <dimension ref="B2:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:H30"/>
+      <selection activeCell="B33" sqref="B33:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4282,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>84</v>
+        <v>449</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -4295,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4328,7 +4508,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>448</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
@@ -4344,12 +4524,12 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -4363,12 +4543,12 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
@@ -4380,12 +4560,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
@@ -4397,7 +4577,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -4421,7 +4601,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -4433,12 +4613,12 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
@@ -4450,27 +4630,27 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
@@ -4482,7 +4662,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -4490,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -4503,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -4536,7 +4716,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -4553,7 +4733,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
@@ -4565,12 +4745,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>29</v>
@@ -4582,12 +4762,12 @@
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
@@ -4599,12 +4779,12 @@
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -4616,7 +4796,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -4639,22 +4819,22 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -4666,7 +4846,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -4674,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -4687,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -4736,12 +4916,12 @@
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="16" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="18" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>29</v>
@@ -4762,7 +4942,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>30</v>
@@ -4772,12 +4952,12 @@
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="16" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="16" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>30</v>
@@ -4787,12 +4967,12 @@
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="16" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="16" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>30</v>
@@ -4802,7 +4982,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="16" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -4816,22 +4996,22 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>29</v>
@@ -4843,7 +5023,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4857,6 +5037,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4864,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B8E1A3-A789-4CEB-89EB-87485794FD55}">
   <dimension ref="B2:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4883,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4895,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4919,12 +5100,12 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -4936,16 +5117,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -4953,15 +5134,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -4969,15 +5150,15 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -4985,15 +5166,15 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -5001,15 +5182,15 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -5017,15 +5198,15 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -5033,108 +5214,108 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>25</v>
@@ -5144,13 +5325,13 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>497</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
@@ -5160,13 +5341,13 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
@@ -5176,13 +5357,13 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
@@ -5192,13 +5373,13 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
@@ -5208,7 +5389,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -5225,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -5237,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -5261,12 +5442,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -5278,16 +5459,16 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>8</v>
@@ -5295,7 +5476,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -5303,7 +5484,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>8</v>
@@ -5311,15 +5492,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>8</v>
@@ -5327,15 +5508,15 @@
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
@@ -5343,15 +5524,15 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
@@ -5359,99 +5540,99 @@
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>8</v>
@@ -5459,15 +5640,15 @@
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>274</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>8</v>
@@ -5475,15 +5656,15 @@
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>8</v>
@@ -5491,12 +5672,12 @@
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>25</v>
@@ -5506,61 +5687,61 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>25</v>
@@ -5570,34 +5751,34 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
-        <v>258</v>
+        <v>501</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>8</v>
@@ -5605,15 +5786,15 @@
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>8</v>
@@ -5621,15 +5802,15 @@
       <c r="E48" s="4"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>8</v>
@@ -5637,15 +5818,15 @@
       <c r="E49" s="4"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>8</v>
@@ -5653,15 +5834,15 @@
       <c r="E50" s="4"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
@@ -5669,15 +5850,15 @@
       <c r="E51" s="4"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>8</v>
@@ -5685,15 +5866,15 @@
       <c r="E52" s="4"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>8</v>
@@ -5701,15 +5882,15 @@
       <c r="E53" s="4"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>8</v>
@@ -5717,15 +5898,15 @@
       <c r="E54" s="4"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>8</v>
@@ -5733,15 +5914,15 @@
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>270</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>8</v>
@@ -5749,7 +5930,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -5765,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -5777,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -5801,12 +5982,12 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>25</v>
@@ -5818,16 +5999,16 @@
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>8</v>
@@ -5835,7 +6016,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -5843,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>8</v>
@@ -5851,15 +6032,15 @@
       <c r="E63" s="4"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>8</v>
@@ -5867,15 +6048,15 @@
       <c r="E64" s="4"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>8</v>
@@ -5883,15 +6064,15 @@
       <c r="E65" s="4"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>8</v>
@@ -5899,15 +6080,15 @@
       <c r="E66" s="4"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>8</v>
@@ -5915,15 +6096,15 @@
       <c r="E67" s="4"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>8</v>
@@ -5931,15 +6112,15 @@
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>8</v>
@@ -5947,15 +6128,15 @@
       <c r="E69" s="4"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>8</v>
@@ -5963,30 +6144,30 @@
       <c r="E70" s="4"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>8</v>
@@ -5994,12 +6175,12 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>25</v>
@@ -6009,64 +6190,64 @@
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>8</v>
@@ -6074,64 +6255,64 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>25</v>
@@ -6142,15 +6323,15 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>8</v>
@@ -6158,15 +6339,15 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>8</v>
@@ -6174,7 +6355,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="2:7">
@@ -6190,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30"/>
@@ -6202,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30"/>
@@ -6226,12 +6407,12 @@
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>25</v>
@@ -6243,16 +6424,16 @@
         <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>8</v>
@@ -6260,15 +6441,15 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>8</v>
@@ -6276,15 +6457,15 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>8</v>
@@ -6292,15 +6473,15 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>8</v>
@@ -6308,15 +6489,15 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>8</v>
@@ -6324,15 +6505,15 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>8</v>
@@ -6340,15 +6521,15 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>8</v>
@@ -6356,15 +6537,15 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>8</v>
@@ -6372,15 +6553,15 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>8</v>
@@ -6388,12 +6569,12 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>25</v>
@@ -6403,16 +6584,16 @@
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G99" s="3"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>8</v>
@@ -6420,76 +6601,76 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>25</v>
@@ -6499,16 +6680,16 @@
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>8</v>
@@ -6516,7 +6697,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="2:7">
@@ -6524,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>8</v>
@@ -6532,15 +6713,15 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>8</v>
@@ -6548,7 +6729,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="2:7">
@@ -6556,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -6568,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
@@ -6592,12 +6773,12 @@
         <v>1</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>25</v>
@@ -6609,13 +6790,13 @@
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>25</v>
@@ -6626,15 +6807,15 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>8</v>
@@ -6642,15 +6823,15 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>8</v>
@@ -6658,7 +6839,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="2:7">
@@ -6666,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>8</v>
@@ -6674,15 +6855,15 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>8</v>
@@ -6690,15 +6871,15 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>8</v>
@@ -6706,15 +6887,15 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>8</v>
@@ -6722,15 +6903,15 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>8</v>
@@ -6738,15 +6919,15 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>8</v>
@@ -6754,30 +6935,30 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="4"/>
       <c r="G123" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>8</v>
@@ -6785,12 +6966,12 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>25</v>
@@ -6800,96 +6981,96 @@
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G125" s="3"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G129" s="3"/>
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G130" s="3"/>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>8</v>
@@ -6897,15 +7078,15 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>8</v>
@@ -6913,15 +7094,15 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>8</v>
@@ -6929,15 +7110,15 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>8</v>
@@ -6945,15 +7126,15 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>8</v>
@@ -6961,15 +7142,15 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>8</v>
@@ -6977,15 +7158,15 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>8</v>
@@ -6993,15 +7174,15 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>8</v>
@@ -7009,15 +7190,15 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>8</v>
@@ -7025,7 +7206,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="2:7">
@@ -7041,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
@@ -7053,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
@@ -7077,12 +7258,12 @@
         <v>1</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>25</v>
@@ -7094,16 +7275,16 @@
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G145" s="3"/>
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>8</v>
@@ -7111,15 +7292,15 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>8</v>
@@ -7127,12 +7308,12 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="2:7">
       <c r="B148" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>25</v>
@@ -7143,15 +7324,15 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>8</v>
@@ -7159,15 +7340,15 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="2:7">
       <c r="B150" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>8</v>
@@ -7175,15 +7356,15 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>8</v>
@@ -7191,15 +7372,15 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="2:7">
       <c r="B152" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>8</v>
@@ -7207,7 +7388,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="2:7">
@@ -7215,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>8</v>
@@ -7223,15 +7404,15 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>8</v>
@@ -7239,30 +7420,30 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="3" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>8</v>
@@ -7270,27 +7451,27 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E157" s="4"/>
       <c r="G157" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="2:7">
       <c r="B158" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>25</v>
@@ -7300,80 +7481,80 @@
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="2:7">
       <c r="B160" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G162" s="3"/>
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>8</v>
@@ -7381,15 +7562,15 @@
       <c r="E163" s="4"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>8</v>
@@ -7397,15 +7578,15 @@
       <c r="E164" s="4"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>8</v>
@@ -7413,15 +7594,15 @@
       <c r="E165" s="4"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>8</v>
@@ -7429,15 +7610,15 @@
       <c r="E166" s="4"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>8</v>
@@ -7445,15 +7626,15 @@
       <c r="E167" s="4"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>8</v>
@@ -7461,15 +7642,15 @@
       <c r="E168" s="4"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>8</v>
@@ -7477,15 +7658,15 @@
       <c r="E169" s="4"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>8</v>
@@ -7493,15 +7674,15 @@
       <c r="E170" s="4"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>8</v>
@@ -7509,47 +7690,47 @@
       <c r="E171" s="4"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="2:7">
       <c r="B173" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="2:7">
       <c r="B174" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>8</v>
@@ -7557,15 +7738,15 @@
       <c r="E174" s="4"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>8</v>
@@ -7573,15 +7754,15 @@
       <c r="E175" s="4"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>8</v>
@@ -7589,7 +7770,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7617,8 +7798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131D61D6-5479-4C3F-A59B-A2865DF3BF49}">
   <dimension ref="B2:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7700,73 +7881,73 @@
         <v>28</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="M4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="O4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="3" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -7849,13 +8030,13 @@
         <v>44</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>40</v>
@@ -7876,45 +8057,45 @@
         <v>54</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P10" s="20" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T10" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
@@ -7927,13 +8108,13 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="3">
         <v>10</v>
@@ -8000,7 +8181,7 @@
         <v>67</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>50</v>
@@ -8012,27 +8193,27 @@
         <v>69</v>
       </c>
       <c r="L16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -8048,25 +8229,25 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I18" s="3">
         <v>6</v>
@@ -8078,229 +8259,229 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>465</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>212</v>
+        <v>466</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I23" s="3">
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D24" s="3">
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>213</v>
+        <v>467</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D25" s="3">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="I25" s="3">
         <v>6</v>
@@ -8312,99 +8493,99 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>219</v>
+        <v>469</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>236</v>
+        <v>470</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D27" s="3">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>8</v>
+        <v>468</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D28" s="3">
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>471</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>13</v>
@@ -8414,622 +8595,622 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D29" s="3">
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>238</v>
+        <v>472</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D30" s="3">
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>249</v>
+        <v>478</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D31" s="3">
         <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D32" s="3">
         <v>16</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>251</v>
+        <v>475</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D33" s="3">
         <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
+        <v>476</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I33" s="3">
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D34" s="3">
         <v>18</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>252</v>
+        <v>477</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D35" s="3">
         <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D36" s="3">
         <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D37" s="3">
         <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>241</v>
+        <v>482</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D38" s="3">
         <v>22</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D39" s="3">
         <v>23</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>253</v>
+        <v>484</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D40" s="3">
         <v>24</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>254</v>
+        <v>485</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G40" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D41" s="3">
         <v>25</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D42" s="3">
         <v>26</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>247</v>
+        <v>488</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D43" s="3">
         <v>27</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>255</v>
+        <v>489</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D44" s="3">
         <v>28</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>182</v>
+        <v>490</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>256</v>
+        <v>491</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D45" s="3">
         <v>29</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>248</v>
+        <v>492</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D46" s="3">
         <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>257</v>
+        <v>493</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D47" s="3">
         <v>31</v>
@@ -9042,20 +9223,20 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>236</v>
+        <v>470</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>243</v>
+        <v>494</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D48" s="3">
         <v>32</v>
@@ -9068,20 +9249,20 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>244</v>
+        <v>495</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D49" s="3">
         <v>33</v>
@@ -9094,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>245</v>
+        <v>496</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -9116,5 +9297,6 @@
     <hyperlink ref="P11" r:id="rId1" xr:uid="{606E7F9E-0920-4D56-A5FD-0A4BDB9FFBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>